--- a/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - mommy.xlsx
+++ b/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - mommy.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021F5E24-55ED-48A7-9C75-F107BEE39C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="32">
   <si>
     <t>B</t>
   </si>
@@ -78,12 +77,48 @@
   <si>
     <t>g</t>
   </si>
+  <si>
+    <t>mommy1</t>
+  </si>
+  <si>
+    <t>mommy2</t>
+  </si>
+  <si>
+    <t>mommy3</t>
+  </si>
+  <si>
+    <t>mommy4</t>
+  </si>
+  <si>
+    <t>mommy5</t>
+  </si>
+  <si>
+    <t>mommy6</t>
+  </si>
+  <si>
+    <t>mommy7</t>
+  </si>
+  <si>
+    <t>mommy8</t>
+  </si>
+  <si>
+    <t>mommy9</t>
+  </si>
+  <si>
+    <t>mommy10</t>
+  </si>
+  <si>
+    <t>mommy11</t>
+  </si>
+  <si>
+    <t>mommy12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,22 +294,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>91964</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>111671</xdr:rowOff>
+      <xdr:colOff>100247</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>70258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1694</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>118240</xdr:rowOff>
+      <xdr:colOff>9977</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76827</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -291,7 +326,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1806464" y="111671"/>
+          <a:off x="1814747" y="260758"/>
           <a:ext cx="1052730" cy="2483069"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -320,7 +355,7 @@
         <xdr:cNvPr id="1028" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -366,7 +401,7 @@
         <xdr:cNvPr id="2" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -412,7 +447,7 @@
         <xdr:cNvPr id="3" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -458,7 +493,7 @@
         <xdr:cNvPr id="4" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -504,7 +539,7 @@
         <xdr:cNvPr id="5" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -550,7 +585,7 @@
         <xdr:cNvPr id="6" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -596,7 +631,7 @@
         <xdr:cNvPr id="7" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -642,7 +677,7 @@
         <xdr:cNvPr id="8" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -688,7 +723,7 @@
         <xdr:cNvPr id="1044" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +769,7 @@
         <xdr:cNvPr id="1046" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -780,7 +815,7 @@
         <xdr:cNvPr id="1048" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -812,9 +847,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -852,7 +887,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -886,7 +921,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -921,10 +955,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1097,19 +1130,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CF53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CF54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BR2" sqref="BR2:BV12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BB39" sqref="BB39:BH52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="92" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1195,7 +1228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1299,7 +1332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1403,7 +1436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1507,7 +1540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:72">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1611,7 +1644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1715,7 +1748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1819,7 +1852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1923,7 +1956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2027,7 +2060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:72">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2131,7 +2164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2235,7 +2268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2333,7 +2366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:72">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2431,7 +2464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:72">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2529,7 +2562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:72">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2627,7 +2660,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:72">
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:84">
       <c r="B20" s="1">
         <v>0</v>
       </c>
@@ -2718,7 +2765,7 @@
       <c r="CE20" s="1"/>
       <c r="CF20" s="1"/>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:84">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2820,7 +2867,7 @@
       <c r="BS21" s="1"/>
       <c r="BT21" s="1"/>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:84">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2918,7 +2965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:84">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3016,7 +3063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:84">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3114,7 +3161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:84">
       <c r="A25">
         <v>4</v>
       </c>
@@ -3212,7 +3259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:84">
       <c r="A26">
         <v>5</v>
       </c>
@@ -3310,7 +3357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:84">
       <c r="A27">
         <v>6</v>
       </c>
@@ -3408,7 +3455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:84">
       <c r="A28">
         <v>7</v>
       </c>
@@ -3506,7 +3553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:84">
       <c r="A29">
         <v>8</v>
       </c>
@@ -3607,7 +3654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:84">
       <c r="A30">
         <v>9</v>
       </c>
@@ -3708,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:84">
       <c r="A31">
         <v>10</v>
       </c>
@@ -3809,7 +3856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:84">
       <c r="A32">
         <v>11</v>
       </c>
@@ -3910,7 +3957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:79">
       <c r="A33">
         <v>12</v>
       </c>
@@ -4011,7 +4058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:79">
       <c r="A34">
         <v>13</v>
       </c>
@@ -4112,22 +4159,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:79">
+      <c r="K35" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>26</v>
+      </c>
       <c r="BY35" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:79">
+      <c r="BL36" t="s">
+        <v>27</v>
+      </c>
       <c r="BY36" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:79">
       <c r="BY37" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:79">
       <c r="B38" s="1">
         <v>0</v>
       </c>
@@ -4220,7 +4279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:79">
       <c r="A39">
         <v>0</v>
       </c>
@@ -4322,7 +4381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:79">
       <c r="A40">
         <v>1</v>
       </c>
@@ -4424,7 +4483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:79">
       <c r="A41">
         <v>2</v>
       </c>
@@ -4526,7 +4585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:79">
       <c r="A42">
         <v>3</v>
       </c>
@@ -4628,7 +4687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:79">
       <c r="A43">
         <v>4</v>
       </c>
@@ -4730,7 +4789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:79">
       <c r="A44">
         <v>5</v>
       </c>
@@ -4832,7 +4891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:79">
       <c r="A45">
         <v>6</v>
       </c>
@@ -4934,7 +4993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:79">
       <c r="A46">
         <v>7</v>
       </c>
@@ -5036,7 +5095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:79">
       <c r="A47">
         <v>8</v>
       </c>
@@ -5138,7 +5197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:79">
       <c r="A48">
         <v>9</v>
       </c>
@@ -5267,7 +5326,7 @@
       <c r="BZ48" s="1"/>
       <c r="CA48" s="1"/>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:64">
       <c r="A49">
         <v>10</v>
       </c>
@@ -5369,7 +5428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:64">
       <c r="A50">
         <v>11</v>
       </c>
@@ -5471,7 +5530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:64">
       <c r="A51">
         <v>12</v>
       </c>
@@ -5573,7 +5632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:64">
       <c r="A52">
         <v>13</v>
       </c>
@@ -5675,11 +5734,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:64">
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
+      <c r="AB53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:64">
+      <c r="K54" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>30</v>
+      </c>
+      <c r="BL54" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5689,24 +5762,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
